--- a/Companies/IT Services & Consulting/Wipro Ltd/Pruned_Excel/8_Jun23_Jun22.xlsx
+++ b/Companies/IT Services & Consulting/Wipro Ltd/Pruned_Excel/8_Jun23_Jun22.xlsx
@@ -55,13 +55,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -428,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J36"/>
+  <dimension ref="A1:F36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -442,10 +439,6 @@
     <col width="11" customWidth="1" min="4" max="4"/>
     <col width="11" customWidth="1" min="5" max="5"/>
     <col width="11" customWidth="1" min="6" max="6"/>
-    <col width="2" customWidth="1" min="7" max="7"/>
-    <col width="9" customWidth="1" min="8" max="8"/>
-    <col width="9" customWidth="1" min="9" max="9"/>
-    <col width="20" customWidth="1" min="10" max="10"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -456,43 +449,27 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>Jun '22</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Sep '22</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Dec '22</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Mar '23</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
           <t>Jun '23</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>Mar '23</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>Dec '22</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>Sep '22</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>Jun '22</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr"/>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>Max</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>Min</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>Avg</t>
         </is>
       </c>
     </row>
@@ -504,37 +481,28 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
+          <t>16,255.60</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>16,941.80</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>17,078.70</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>17,477.30</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
           <t>17,202.80</t>
         </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>17,477.30</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>17,078.70</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>16,941.80</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>16,255.60</t>
-        </is>
-      </c>
-      <c r="H2" s="2" t="n">
-        <v>17477.3</v>
-      </c>
-      <c r="I2" s="2" t="n">
-        <v>16255.6</v>
-      </c>
-      <c r="J2" s="2" t="n">
-        <v>16991.24</v>
       </c>
     </row>
     <row r="3">
@@ -545,37 +513,28 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
+          <t>16,255.60</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>16,941.80</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>17,078.70</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>17,477.30</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
           <t>17,202.80</t>
         </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>17,477.30</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>17,078.70</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>16,941.80</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>16,255.60</t>
-        </is>
-      </c>
-      <c r="H3" s="2" t="n">
-        <v>17477.3</v>
-      </c>
-      <c r="I3" s="2" t="n">
-        <v>16255.6</v>
-      </c>
-      <c r="J3" s="2" t="n">
-        <v>16991.24</v>
       </c>
     </row>
     <row r="4"/>
@@ -594,37 +553,28 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
+          <t>139.60</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>113.20</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>110.20</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>15.20</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
           <t>92.00</t>
         </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>15.20</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>110.20</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>113.20</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>139.60</t>
-        </is>
-      </c>
-      <c r="H6" s="2" t="n">
-        <v>139.6</v>
-      </c>
-      <c r="I6" s="2" t="n">
-        <v>15.2</v>
-      </c>
-      <c r="J6" s="2" t="n">
-        <v>94.03999999999999</v>
       </c>
     </row>
     <row r="7">
@@ -635,37 +585,28 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
+          <t>-41.90</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>-10.80</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>-14.40</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>63.60</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
           <t>-13.30</t>
         </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>63.60</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>-14.40</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>-10.80</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>-41.90</t>
-        </is>
-      </c>
-      <c r="H7" s="2" t="n">
-        <v>63.6</v>
-      </c>
-      <c r="I7" s="2" t="n">
-        <v>-41.9</v>
-      </c>
-      <c r="J7" s="2" t="n">
-        <v>-3.359999999999999</v>
       </c>
     </row>
     <row r="8">
@@ -676,37 +617,28 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
+          <t>8,684.70</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>9,517.90</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>9,376.90</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>9,622.10</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
           <t>9,735.60</t>
         </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>9,622.10</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>9,376.90</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>9,517.90</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>8,684.70</t>
-        </is>
-      </c>
-      <c r="H8" s="2" t="n">
-        <v>9735.6</v>
-      </c>
-      <c r="I8" s="2" t="n">
-        <v>8684.700000000001</v>
-      </c>
-      <c r="J8" s="2" t="n">
-        <v>9387.439999999999</v>
       </c>
     </row>
     <row r="9">
@@ -717,37 +649,28 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
+          <t>394.90</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>405.20</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>408.10</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>383.90</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
           <t>376.70</t>
         </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>383.90</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>408.10</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>405.20</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>394.90</t>
-        </is>
-      </c>
-      <c r="H9" s="2" t="n">
-        <v>408.1</v>
-      </c>
-      <c r="I9" s="2" t="n">
-        <v>376.7</v>
-      </c>
-      <c r="J9" s="2" t="n">
-        <v>393.76</v>
       </c>
     </row>
     <row r="10">
@@ -758,37 +681,28 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
+          <t>4,378.60</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>4,276.10</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>4,454.30</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>4,932.40</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
           <t>4,127.90</t>
         </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>4,932.40</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>4,454.30</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>4,276.10</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>4,378.60</t>
-        </is>
-      </c>
-      <c r="H10" s="2" t="n">
-        <v>4932.4</v>
-      </c>
-      <c r="I10" s="2" t="n">
-        <v>4127.9</v>
-      </c>
-      <c r="J10" s="2" t="n">
-        <v>4433.86</v>
       </c>
     </row>
     <row r="11">
@@ -799,37 +713,28 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
+          <t>2,699.70</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>2,640.20</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>2,743.60</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>2,460.10</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
           <t>2,883.90</t>
         </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>2,460.10</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>2,743.60</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>2,640.20</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>2,699.70</t>
-        </is>
-      </c>
-      <c r="H11" s="2" t="n">
-        <v>2883.9</v>
-      </c>
-      <c r="I11" s="2" t="n">
-        <v>2460.1</v>
-      </c>
-      <c r="J11" s="2" t="n">
-        <v>2685.5</v>
       </c>
     </row>
     <row r="12">
@@ -840,37 +745,28 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
+          <t>389.70</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>450.30</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>657.60</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>856.60</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
           <t>742.10</t>
         </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>856.60</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>657.60</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>450.30</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>389.70</t>
-        </is>
-      </c>
-      <c r="H12" s="2" t="n">
-        <v>856.6</v>
-      </c>
-      <c r="I12" s="2" t="n">
-        <v>389.7</v>
-      </c>
-      <c r="J12" s="2" t="n">
-        <v>619.26</v>
       </c>
     </row>
     <row r="13">
@@ -881,37 +777,28 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
+          <t>3,089.40</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>3,090.50</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>3,401.20</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>3,316.70</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
           <t>3,626.00</t>
         </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>3,316.70</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>3,401.20</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>3,090.50</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>3,089.40</t>
-        </is>
-      </c>
-      <c r="H13" s="2" t="n">
-        <v>3626</v>
-      </c>
-      <c r="I13" s="2" t="n">
-        <v>3089.4</v>
-      </c>
-      <c r="J13" s="2" t="n">
-        <v>3304.76</v>
       </c>
     </row>
     <row r="14">
@@ -922,37 +809,28 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
+          <t>145.70</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>134.90</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>174.10</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>174.20</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
           <t>204.90</t>
         </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>174.20</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>174.10</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>134.90</t>
-        </is>
-      </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>145.70</t>
-        </is>
-      </c>
-      <c r="H14" s="2" t="n">
-        <v>204.9</v>
-      </c>
-      <c r="I14" s="2" t="n">
-        <v>134.9</v>
-      </c>
-      <c r="J14" s="2" t="n">
-        <v>166.76</v>
       </c>
     </row>
     <row r="15">
@@ -963,37 +841,28 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
+          <t>2,943.70</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>2,955.60</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>3,227.10</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>3,142.50</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
           <t>3,421.10</t>
         </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>3,142.50</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>3,227.10</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>2,955.60</t>
-        </is>
-      </c>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>2,943.70</t>
-        </is>
-      </c>
-      <c r="H15" s="2" t="n">
-        <v>3421.1</v>
-      </c>
-      <c r="I15" s="2" t="n">
-        <v>2943.7</v>
-      </c>
-      <c r="J15" s="2" t="n">
-        <v>3138</v>
       </c>
     </row>
     <row r="16">
@@ -1004,37 +873,28 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
+          <t>2,943.70</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>2,955.60</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>3,227.10</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>3,142.50</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
           <t>3,421.10</t>
         </is>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>3,142.50</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>3,227.10</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>2,955.60</t>
-        </is>
-      </c>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>2,943.70</t>
-        </is>
-      </c>
-      <c r="H16" s="2" t="n">
-        <v>3421.1</v>
-      </c>
-      <c r="I16" s="2" t="n">
-        <v>2943.7</v>
-      </c>
-      <c r="J16" s="2" t="n">
-        <v>3138</v>
       </c>
     </row>
     <row r="17">
@@ -1045,37 +905,28 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
+          <t>727.10</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>672.70</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>814.00</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>878.40</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
           <t>833.30</t>
         </is>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>878.40</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>814.00</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>672.70</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>727.10</t>
-        </is>
-      </c>
-      <c r="H17" s="2" t="n">
-        <v>878.4</v>
-      </c>
-      <c r="I17" s="2" t="n">
-        <v>672.7</v>
-      </c>
-      <c r="J17" s="2" t="n">
-        <v>785.1</v>
       </c>
     </row>
     <row r="18">
@@ -1086,37 +937,28 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
+          <t>2,216.60</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>2,282.90</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>2,413.10</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>2,264.10</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
           <t>2,587.80</t>
         </is>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>2,264.10</t>
-        </is>
-      </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>2,413.10</t>
-        </is>
-      </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>2,282.90</t>
-        </is>
-      </c>
-      <c r="F18" t="inlineStr">
-        <is>
-          <t>2,216.60</t>
-        </is>
-      </c>
-      <c r="H18" s="2" t="n">
-        <v>2587.8</v>
-      </c>
-      <c r="I18" s="2" t="n">
-        <v>2216.6</v>
-      </c>
-      <c r="J18" s="2" t="n">
-        <v>2352.9</v>
       </c>
     </row>
     <row r="19">
@@ -1127,37 +969,28 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
+          <t>2,216.60</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>2,282.90</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>2,413.10</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>2,264.10</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
           <t>2,587.80</t>
         </is>
-      </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>2,264.10</t>
-        </is>
-      </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>2,413.10</t>
-        </is>
-      </c>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>2,282.90</t>
-        </is>
-      </c>
-      <c r="F19" t="inlineStr">
-        <is>
-          <t>2,216.60</t>
-        </is>
-      </c>
-      <c r="H19" s="2" t="n">
-        <v>2587.8</v>
-      </c>
-      <c r="I19" s="2" t="n">
-        <v>2216.6</v>
-      </c>
-      <c r="J19" s="2" t="n">
-        <v>2352.9</v>
       </c>
     </row>
     <row r="20">
@@ -1168,37 +1001,28 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
+          <t>1,096.50</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>1,097.10</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>1,097.40</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>1,097.60</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
           <t>1,097.80</t>
         </is>
-      </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>1,097.60</t>
-        </is>
-      </c>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>1,097.40</t>
-        </is>
-      </c>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>1,097.10</t>
-        </is>
-      </c>
-      <c r="F20" t="inlineStr">
-        <is>
-          <t>1,096.50</t>
-        </is>
-      </c>
-      <c r="H20" s="2" t="n">
-        <v>1097.8</v>
-      </c>
-      <c r="I20" s="2" t="n">
-        <v>1096.5</v>
-      </c>
-      <c r="J20" s="2" t="n">
-        <v>1097.28</v>
       </c>
     </row>
     <row r="21"/>
@@ -1217,37 +1041,28 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
+          <t>4.05</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>4.17</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>4.40</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>4.13</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
           <t>4.72</t>
         </is>
-      </c>
-      <c r="C23" t="inlineStr">
-        <is>
-          <t>4.13</t>
-        </is>
-      </c>
-      <c r="D23" t="inlineStr">
-        <is>
-          <t>4.40</t>
-        </is>
-      </c>
-      <c r="E23" t="inlineStr">
-        <is>
-          <t>4.17</t>
-        </is>
-      </c>
-      <c r="F23" t="inlineStr">
-        <is>
-          <t>4.05</t>
-        </is>
-      </c>
-      <c r="H23" s="2" t="n">
-        <v>4.72</v>
-      </c>
-      <c r="I23" s="2" t="n">
-        <v>4.05</v>
-      </c>
-      <c r="J23" s="2" t="n">
-        <v>4.294</v>
       </c>
     </row>
     <row r="24">
@@ -1258,37 +1073,28 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
+          <t>4.04</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>4.16</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>4.40</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>4.12</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
           <t>4.62</t>
         </is>
-      </c>
-      <c r="C24" t="inlineStr">
-        <is>
-          <t>4.12</t>
-        </is>
-      </c>
-      <c r="D24" t="inlineStr">
-        <is>
-          <t>4.40</t>
-        </is>
-      </c>
-      <c r="E24" t="inlineStr">
-        <is>
-          <t>4.16</t>
-        </is>
-      </c>
-      <c r="F24" t="inlineStr">
-        <is>
-          <t>4.04</t>
-        </is>
-      </c>
-      <c r="H24" s="2" t="n">
-        <v>4.62</v>
-      </c>
-      <c r="I24" s="2" t="n">
-        <v>4.04</v>
-      </c>
-      <c r="J24" s="2" t="n">
-        <v>4.268</v>
       </c>
     </row>
     <row r="25"/>
@@ -1307,37 +1113,28 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
+          <t>4.05</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>4.17</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>4.40</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>4.13</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
           <t>4.72</t>
         </is>
-      </c>
-      <c r="C27" t="inlineStr">
-        <is>
-          <t>4.13</t>
-        </is>
-      </c>
-      <c r="D27" t="inlineStr">
-        <is>
-          <t>4.40</t>
-        </is>
-      </c>
-      <c r="E27" t="inlineStr">
-        <is>
-          <t>4.17</t>
-        </is>
-      </c>
-      <c r="F27" t="inlineStr">
-        <is>
-          <t>4.05</t>
-        </is>
-      </c>
-      <c r="H27" s="2" t="n">
-        <v>4.72</v>
-      </c>
-      <c r="I27" s="2" t="n">
-        <v>4.05</v>
-      </c>
-      <c r="J27" s="2" t="n">
-        <v>4.294</v>
       </c>
     </row>
     <row r="28">
@@ -1348,37 +1145,28 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
+          <t>4.04</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>4.16</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>4.40</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>4.12</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
           <t>4.62</t>
         </is>
-      </c>
-      <c r="C28" t="inlineStr">
-        <is>
-          <t>4.12</t>
-        </is>
-      </c>
-      <c r="D28" t="inlineStr">
-        <is>
-          <t>4.40</t>
-        </is>
-      </c>
-      <c r="E28" t="inlineStr">
-        <is>
-          <t>4.16</t>
-        </is>
-      </c>
-      <c r="F28" t="inlineStr">
-        <is>
-          <t>4.04</t>
-        </is>
-      </c>
-      <c r="H28" s="2" t="n">
-        <v>4.62</v>
-      </c>
-      <c r="I28" s="2" t="n">
-        <v>4.04</v>
-      </c>
-      <c r="J28" s="2" t="n">
-        <v>4.268</v>
       </c>
     </row>
     <row r="29"/>
